--- a/docs/ST4/ST4_30.07.24v_output.xlsx
+++ b/docs/ST4/ST4_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,941 +505,1119 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731446239.225153</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731446240.1290374</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731446239.225153.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731446240.1290374.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.33</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731446246.3866284</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731446246.3866284.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731446246.3866284.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>290.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="L4" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731446252.422744</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731446252.5561268</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446252.422744.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446252.5561268.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.37</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>132.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731446253.9140997</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731446254.5357664</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446253.9140997.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446254.5357664.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>132.43</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>132.41</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731446256.050142</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731446256.3670282</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446256.050142.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446256.3670282.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>132.24</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>132.37</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731446257.913009</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731446257.913009.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731446257.913009.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>132.28</v>
       </c>
-      <c r="J8" t="n">
-        <v>132.28</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>132.29</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731446261.681687</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731446261.7971375</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731446261.681687.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731446261.7971375.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6810</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6808</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731446261.9979205</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731446262.2591882</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731446261.9979205.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731446262.2591882.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6810</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6813</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731446271.7733555</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731446272.087965</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731446271.7733555.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731446272.087965.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>512.75</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>512.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731446273.8646195</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731446275.3206012</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731446273.8646195.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731446275.3206012.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>512.35</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>511.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.150000000000034</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731446282.8842232</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731446284.0706246</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731446282.8842232.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731446284.0706246.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1044.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1042.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-2.399999999999864</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731446289.3167474</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731446289.4572139</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731446289.3167474.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731446289.4572139.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.66</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731446289.5040605</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731446289.800491</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731446289.5040605.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731446289.800491.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>127.7</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>127.38</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3200000000000074</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731446292.6764135</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731446292.6764135.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731446292.6764135.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>127.34</v>
       </c>
-      <c r="J16" t="n">
-        <v>127.34</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="L16" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731446294.3950925</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731446296.591305</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731446294.3950925.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731446296.591305.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>165.84</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>166.54</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731446299.8054423</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731446300.0719464</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731446299.8054423.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731446300.0719464.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>165.68</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>165.62</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731446306.5308514</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731446306.7885847</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446306.5308514.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446306.7885847.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>51.45</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>51.49</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731446308.6346145</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731446309.4920328</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446308.6346145.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446309.4920328.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>51.44</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>51.425</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731446309.7076206</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731446309.7076206.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731446309.7076206.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>51.37</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>51.37</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1432,146 +1625,173 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731446311.8419337</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731446311.9283364</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731446311.8419337.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731446311.9283364.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1421.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1421.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1999999999998181</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731446319.347936</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731446319.7335775</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731446319.347936.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731446319.7335775.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>60.52</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>60.54</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731446326.870829</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731446327.57259</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731446326.870829.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731446327.57259.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>60.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>60.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1579,236 +1799,281 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731446328.2320457</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731446330.6011791</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446328.2320457.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446330.6011791.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>141.14</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>141.42</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731446331.571219</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731446331.7412426</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446331.571219.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446331.7412426.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>141.96</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>141.94</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731446332.6951878</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731446334.0854416</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446332.6951878.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446334.0854416.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>140.98</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>141.12</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731446335.4192</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731446335.6625717</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446335.4192.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446335.6625717.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>140.88</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>141.02</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731446335.7897606</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731446335.7897606.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731446335.7897606.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>140.78</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>140.78</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1816,605 +2081,722 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731446338.185055</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731446338.52869</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731446338.185055.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731446338.52869.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>54.17</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>54.11</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731446343.2443557</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731446343.5829768</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731446343.2443557.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731446343.5829768.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>53.83</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>53.74</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.08999999999999631</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731446344.2653418</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731446344.358061</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731446344.2653418.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731446344.358061.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>53.65</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>53.72</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731446344.4472325</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731446344.9539113</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731446344.4472325.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731446344.9539113.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>53.67</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>53.62</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731446345.2403936</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731446345.2403936.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731446345.2403936.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>53.43</v>
       </c>
-      <c r="J34" t="n">
-        <v>53.43</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731446353.2634487</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731446353.5132322</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731446353.2634487.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731446353.5132322.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>371.97</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>371.3</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.6700000000000159</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731446354.135669</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731446354.135669.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731446354.135669.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>371.99</v>
       </c>
-      <c r="J36" t="n">
-        <v>371.99</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>371.92</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731446361.1058927</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731446362.890371</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731446361.1058927.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731446362.890371.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>3026.9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>3022.1</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>4.800000000000182</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731446363.9271324</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731446363.9271324.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731446363.9271324.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>3018.55</v>
       </c>
-      <c r="J38" t="n">
-        <v>3018.55</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="L38" t="n">
+        <v>3018.15</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731446365.716445</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731446369.637302</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731446365.716445.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731446369.637302.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>34.545</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>34.68</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.134999999999998</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731446371.2012708</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731446371.318988</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731446371.2012708.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731446371.318988.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>34.485</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>34.49</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.005000000000002558</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731446372.0220788</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731446372.7192757</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731446372.0220788.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731446372.7192757.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>34.38</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>34.395</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731446380.0917444</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731446380.0917444.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731446380.0917444.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>640.4</v>
       </c>
-      <c r="J42" t="n">
-        <v>640.4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>640.6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2457,6 +2839,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2465,13 +2857,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.00999999999999801</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.001999999999999602</v>
+        <v>0.01400000000000006</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -2489,6 +2887,12 @@
       <c r="D3" t="n">
         <v>0.1160000000000082</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2497,13 +2901,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2399999999999807</v>
+        <v>0.2499999999999716</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05999999999999517</v>
+        <v>0.06249999999999289</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -2513,13 +2923,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1600000000000108</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05333333333333693</v>
+        <v>0.06666666666666761</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -2537,6 +2953,12 @@
       <c r="D6" t="n">
         <v>0.05166666666666705</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2553,6 +2975,12 @@
       <c r="D7" t="n">
         <v>0.00833333333333286</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2569,6 +2997,12 @@
       <c r="D8" t="n">
         <v>0.3199999999999932</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2577,13 +3011,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3500000000000227</v>
+        <v>-0.75</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1750000000000114</v>
+        <v>-0.375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="10">
@@ -2601,6 +3041,12 @@
       <c r="D10" t="n">
         <v>0.7500000000000284</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2609,13 +3055,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.800000000000182</v>
+        <v>4.400000000000091</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>2.400000000000091</v>
+        <v>2.200000000000045</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -2633,6 +3085,12 @@
       <c r="D12" t="n">
         <v>0.00999999999999801</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2649,6 +3107,12 @@
       <c r="D13" t="n">
         <v>-0.5</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2657,13 +3121,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.6700000000000159</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.335000000000008</v>
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
@@ -2681,6 +3151,12 @@
       <c r="D15" t="n">
         <v>-2.399999999999864</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2697,6 +3173,12 @@
       <c r="D16" t="n">
         <v>0.1999999999998181</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2705,13 +3187,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.2000000000000455</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="18">
@@ -2727,6 +3215,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
